--- a/va_facility_data_2025-02-20/Pittsburgh VA Medical Center-University Drive - Facility Data.xlsx"; filename*=UTF-8''Pittsburgh%20VA%20Medical%20Center-University%20Drive%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Pittsburgh VA Medical Center-University Drive - Facility Data.xlsx"; filename*=UTF-8''Pittsburgh%20VA%20Medical%20Center-University%20Drive%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rbdce7273515a4cb7b968468fc2010996"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rad0092b909af4e6995338be13b31f237"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R30139f85b47d4a498a7860047b24db1a"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R6c32dd23c48147bd8f4168b2ea548780"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R8009fa864a22410e84f6d3ed91bdbacf"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R676999aa7a634f1784a7b2e9c22e43cd"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R538becfbdabc4c6d842380979a7fd6f1"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R504c1a2bf1fc479fa3896fd78fb1d10d"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R77cffe90927a4b9cb1006d516e770adb"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R8026022cc12a4dc9b809c90e1b7d5a46"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R6537537aad194872a16b4f0183784f40"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rc2fdffb91bcb4f2280de71c66a140fe6"/>
   </x:sheets>
 </x:workbook>
 </file>
